--- a/DOWNLOADS/EDITAIS/U_180205_E_900072025/U_180205_E_900072025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_180205_E_900072025/U_180205_E_900072025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="41">
   <si>
     <t>Nº</t>
   </si>
@@ -127,46 +127,7 @@
     <t>Caixa Acústica Caixa Acústica Potência: 300WRMS, Tamanho Alto-Falante: 15POL, Tipo Tweeter: Titânio, Características Adicionais: Ativa, Bluetooth, Usb, Impedância Entrada: 8OHM, Voltagem: BivoltV, Aplicação: Propagação Som</t>
   </si>
   <si>
-    <t>Manequim torso Adulto para reanimação cárdio pulmonar projetada para: Medir a prática da RCP; Avaliar os resultados da prática e proporcionar um bom feedback para o instrutor e aluno. Disponível em mais de uma tonalidade de pele que  ofereça uma excelente possibilidade de promover treinamento de RCP, técnicas de via aérea básica, com enfoque no aprimoramento   da   qualidade   da assistência; Características        básicas: Obstrução natural das  vias aéreas de  forma a permitir aos estudantes aprender a técnica de abrir a via aérea como em uma situação real, mandíbula móvel, face removível,  elasticidade do  tórax  tipo humano,  enquanto  a  ventilação  e compressão, marcas realísticas para local de  ponto  de  compressão  (esterno, mamilos e umbigo), possibilitar o uso de ressuscitador manual ou protetor facial durante   a   ventilação,   permitir   a respiração  boca-boca,  boca-nariz,  só nariz e com máscara bucal (ambas Pocket Mask e Bag-Valve Mask (BVM), tenha dispositivo audível para confirmar zona de  compressão  com   sinal   “clique”  caracterizando   a   profundidade  da compressão  correta,  a  resistência  e elasticidade do tórax devem ser realista e similar ao de um adulto médio, de forma a  permitir  que o  equipamento  seja compatível com sistemas externos de compressão   e   avaliação  da  RCP disponíveis                     no mercado; ACESSÓRIO: Bolsa para transporte                         e armazenamento: Confeccionada    em “nylon” 420 dublado, plastificado, com forro interno confeccionado com nylon 210,  plastificado,  na  cor  cinza,  para acondicionamento do  boneco; Possuir alça de mão para manuseio e transporte, confeccionado com “nylon” 420 dublado com espuma de 10 mm; O fechamento da bolsa deve ser feito através de zíper nº 8, com costuras duplas e dois cursores compatíveis,   esmaltados,   na   cor preta; Apresentação do Produto Deverá Atender  a  Legislação  Atual  Vigente, Garantia Mínima de 12 Meses</t>
-  </si>
-  <si>
-    <t>Modelo      anatômico      humano; confeccionado em  confeccionado em material sintético mais próximo da pele humana, durável e inquebrável; corpo inteiro,   bebê;   assexuado;  tamanho natural; não dissecável; composto por cabeça,   tronco  e  membros,   para simulação de RCP; incluindo manobra de ventilação e massagem cardíaca externa; acondicionado em bolsa apropriada para conservação e transporte; a apresentação do produto deverá atender a legislação atual  vigente, garantia mínima de 12 meses;Tamanho: Natural. ACESSÓRIOS: Bolsa para transporte                         e armazenamento: Confeccionada    em “nylon” 420 dublado, plastificado, com forro interno confeccionado com nylon 210,  plastificado,  na  cor  cinza,  para acondicionamento do  boneco; Possuir alça de mão para manuseio e transporte, confeccionado com “nylon” 420 dublado com espuma de 10 mm; O fechamento da bolsa deve ser feito através de zíper nº 8, com costuras duplas e dois cursores compatíveis,   esmaltados,   na   cor preta; Apresentação do Produto Deverá Atender  a  Legislação  Atual  Vigente, Garantia Mínima de 12 Meses</t>
-  </si>
-  <si>
-    <t>Cabeça: modelada em massa “Clay”, com formas desmoldadas em resina sintética com mantas, pintada internamente com material não solvente, acabamento interno em espuma de 10mm densidade 23, finalizado em tecido pelúcia “Velboa” de 3 mm, na cor preta, e abertura nos olhos com tela acrílica, que permitam a perfeita visualização externa pelo usuário. Parte externa da cabeça: revestimento em tecido “Velboa” de 3 mm, nas cores padrão e com características próprias do mascote (branco e preto) vide fotos do Anexo 1. Medidas  da  cabeça:  diâmetro: aproximadamente 40 cm e medida do focinho à nuca aproximadamente 47 cm. Dispositivo de ventilação interna: deverá  possuir  internamente um dispositivo “power bank” ou baterias recarregáveis,   com    respectivo carregador,  com  botão   liga  e desliga, para acionamento de um cooler para favorecer a circulação de ar no seu interior. Roupas: Calça: em malha 100% algodão, fio 30, de primeira qualidade com enchimento em microfibra e revestimento interno em tecido sintético aerado, nas cores padrão do personagem, com suspensório de tiras de aproximadamente 5 cm de mesma cor, com sistema de ajuste de altura. Calda fixada na calça de aproximadamente 60 cm confeccionado em tecido pelúcia “Velboa” de 0,3 mm, enchimento em microfibra, na cor padrão do mascote (branco e preto) vide fotos em Anexo 1. Camisa: corpo em tecido sintético aerado  com   enchimento  em microfibra, mangas com punho em elástico, confeccionado em tecido pelúcia “Velboa”  de   0,3  mm, enchimento   em     microfibra, revestido internamente com tecido aerado para ajudar na transpiração, nas  cores  padrão  do  mascote (branco  e  preto)  vide  fotos em Anexo 1. Manguito para o Verão: Manguito com  punho em  tecido  pelúcia “Velboa”   de   0,3  mm  com revestimento  interno em  tecido aerado para ajudar na transpiração, ligados  por  fita  elástica  na  cor branca de 7 cm de largura. Luvas: em tecido pelúcia “Velboa” de 0,3 mm revestido internamente em tecido aerado, para auxiliar na transpiração com velcro para fixação no braço. Camiseta vermelha: confeccionada em tecido de algodão, fio 30, de primeira qualidade, com logo do Corpo  de  Bombeiros  da  Polícia Militar do  Estado de São  Paulo estampado  no  tecido,  medindo aproximadamente   25  cm   de diâmetro,     conforme       arte disponibilizado  pelo  Corpo  de Bombeiros; Sapato: confeccionado em espuma de 50mm densidade 23 nas cores padrão do mascote (preto e amarelo), solado em EVA preto medindo aproximadamente 40 cm, revestido de material emborrachado e na entrada do pé tecido elástico para fixação. Internamente deverá conter um calçado tipo “chinelo de dedo”, tamanho 43/44 para fixação dos pés</t>
-  </si>
-  <si>
-    <t>Tablet Tela: Superior A 10 POL, Memória Ram: 16 GB, Armazenamento Interno: Superior A 32 GB, Armazenamento Externo: Superior A 500 GB, Processador: Octa Core Ou Superior , Câmera Frontal: Superior A 8 MPX, Câmera Traseira: 8,1 A 13 MPX, Conectividade: Wi-Fi / 5g / Bluetooth , Sistema Operacional: Proprietário</t>
-  </si>
-  <si>
-    <t>Desfibrilador; Externo Automático para Treinamento; Carga Com Simulação para Aplicação de Desfibrilação, Portátil; Descarga Não Se Aplica; Jogos de Eletrodos para Adultos, Com Sistema Automático de Identificação de Conexão Dos Eletrodos; Segurança Normas Vigentes; Alimentação: Bateria Ou Pilha Recarregável; Acompanha: Instruções de Voz Em Português, Sinais Sonoros; Dimensões: Com Peso Aproximado de 1,5 Kg; Inclui: Manual, Bolsa P/ Transporte, Bateria, Eletrodos E cabos para Funcionamento; a Apresentação do Produto Deverá Atender a Legislação Atual Vigente, Garantia Mínima de 12 Meses</t>
-  </si>
-  <si>
-    <t>Mesa dobrável ao meio que vira uma maleta, com alça para transporte e travamento central e lateral, Tampo de Polietileno Injetado na Cor Branca no formato retangular, estrutura em Aço Carbono, com Estrutura na cor cinza, acabamento em Pintura Eletrostática com tinta Pó, material resistente à manchas riscos e descascos;</t>
-  </si>
-  <si>
-    <t>Tipo Lâmpada: Halógena , Voltagem: 110/220 V, Quantidade Entrada Rgb: 1 S-Vídeo/1rca UN, Quantidade Entradas Vídeo: Mínimo 2 UN, Tipo Zoom: Controle Remoto , Tipo: Portátil , Capacidade Projeção Cor: 16 Milhões PX, Luminosidade Mínima: 800 LM, Tipo Projeção: Frontal , Resolução: Nativa 1920x1200 , Tipo Controle: Manual E Remoto</t>
-  </si>
-  <si>
-    <t>Processador intel corre i7 ou AMD Ryzen 7 (12ºgeração ou superior, memória RAM de 16GBa 32GB, armazamento SSD de 1TB (ou combinação de SSD+HDD), tela de 15.6" a 17.3", Full HD (1920x1080) ou QHD (2560x1440), IPS, 120Hz ou superior, placa de vídeo dedicada (NVIDIA RTX 3060 ou AMD Radeon RX RX 6600M), bateria 4 a 6 horas de duração e sistema operacional Windows 11 Pro.</t>
-  </si>
-  <si>
-    <t>Câmera de Ação à Prova d'água 10m, 5.3K60, HLG HDR, 27MP, HyperSmooth 6.0, GPS, Wi-Fi 6 e Acessórios Extras The Handler, Bateria Enduro, Cartão de 64GB e um Estojo Disparo contínuo em câmera lenta: 720p400/900p360/5,3K120, Lapso de tempo: vídeo TimeWarp 3.0 em 5,3K/Rastros de estrelas/Pintura com luz/ Rastros de luzes de veículos/Vídeos com lapso de tempo em 5,3K/Foto com lapso de tempo/Vídeo com lapso noturno em 5,3K/Foto com lapso noturno, Vídeo: 5,3K60, 4K120, 2,7K240 e mais/câmera oito vezes mais lenta/ capturas de quadro de 24,7 MP, Foto: foto única de 27 MP/intervalo da foto/foto noturna/ disparo contínuo de 30 qps/RAW</t>
-  </si>
-  <si>
-    <t>Sistema Tipo: sistema sem fio UHF analógico Modulação: FM (Frequência Modulada) Faixa de frequência: A (548–572 MHz) — homologada para uso no Brasil pela Anatel Largura de banda: até 24 MHz Canais: até 10 sistemas simultâneos (dependendo da região e condições de RF) Resposta de frequência (áudio): 50 Hz – 16 kHz Relação sinal/ruído: &gt;103 dB(A) Compander: HDX (proprietário da Sennheiser) Alcance: até 75 m em condições ideais Transmissor de Mão Potência de transmissão: 10 mW (fixo) Cápsula: dinâmica, padrão polar cardioide Display: LED indicador de status e bateria Alimentação: 2 pilhas AA (até 10 h de operação) Peso: aprox. 245 g (com pilhas) Receptor Estacionário Tipo: diversity com antenas integradas Controles: botões para varredura automática de frequência e sincronização Saídas: XLR balanceada P10 (1/4") não balanceada Alimentação: fonte externa 12 V DC Peso: aprox. 340 g Carcaça: plástico resistente Recursos Especiais Sincronização automática entre transmissor e receptor Operação simples (conceito “ligar e usar”) 8 bancos de memória de frequências pré-definidas Design leve e compacto para transporte fácil</t>
-  </si>
-  <si>
-    <t>Tipo: Microfone dinâmico Uso principal: Voz ao vivo, apresentações, palestras Padrão polar: Cardioide (rejeita ruídos de fundo e sons laterais) Resposta de frequência: 70 Hz – 15 kHz Especificações técnicas Sensibilidade: 2,5 mV/Pa Impedância de saída: 600 Ω Conector: XLR de 3 pinos Filtro anti-puff / proteção contra vento: Grade metálica interna Construção: Corpo metálico resistente a impactos Peso: 280 g Dimensões: 170 mm (comprimento) × 50 mm (diâmetro) Recursos e vantagens Microfone robusto, indicado para uso profissional em eventos ao vivo Bom custo-benefício para iniciantes e aplicações corporativas Rejeita microfonia e ruídos laterais graças ao padrão cardioide Funciona sem necessidade de alimentação phantom</t>
-  </si>
-  <si>
-    <t>Pedestal/suporte de poio: Tripê para Caixa Acústica Profissional Cor: Preta Acabamento Pintura Eletrostática Estrutura Metálica Com Pecas de Conexão Injetada Sem Plástico Altura Max. de 180cm e Altura Min. de 130cm Com 3 Níveis de Regulagem; Diâmetro do Encaixe: 3,5 Cm; Diâmetro do Tubo: 35mm (1,37 Polegadas); Pés retrateis com pontas emborrachadas para estabilidade, ajuste de inclinação e ajuste para rosquear o cachimbo do microfone</t>
-  </si>
-  <si>
-    <t>Configuração geral Tipo: Mixer analógico com interface USB integrada Canais totais: 12 6 × entradas mono com pré- amplificadores D-PRE (com ganho de até +55 dB) 3 × entradas estéreo (linha) Entradas microfone: 6 × XLR (com phantom power +48V) Entradas linha: 3 × estéreo TRS (1/4") Pré-amplificadores e EQ Pré-amplificadores: 6 × D-PRE (classe A, som transparente) Equalizador: 3 bandas EQ (graves, médios, agudos) em todos os canais mono 2 bandas EQ nos canais estéreo Processador de efeitos: SPX digital com 24 efeitos, incluindo reverb, delay, chorus e flanger Saídas Saídas principais: 2 × XLR balanceadas (Left/Right) Saídas auxiliares: 2 × auxiliar (para monitor ou efeitos externos) Saída de fone de ouvido: 1 × 1/4" com controle de volume Interface USB: 2 × canais para gravação/streaming direto em computador Recursos adicionais Phantom power +48 V para microfones condensadores Pan/Balanced control em todos os canais Controles de ganho e level independentes Alimentação: 100–240 V AC, 50/60 Hz Dimensões: 333 × 319 × 106 mm Peso: 3,7 kg Aplicações típicas Shows e apresentações ao vivo (bandas pequenas e médias) Gravação e streaming via computador Podcast, palestras e eventos corporativos Integração com efeitos digitais internos</t>
-  </si>
-  <si>
-    <t>Especificações Tipo: caixa acústica ativa (autoamplificada) Formato: 2 vias, bass-reflex Alto-falantes: Woofer: 10" (254 mm) Driver de compressão: 1" (2414H) com diafragma de polímero Amplificação: Classe D, biamplificada Potência máxima: 1.300 W (pico) / 650 W (RMS) SPL Máximo: até 125 dB Resposta de frequência (-10 dB): 52 Hz – 20 kHz Resposta de frequência (-3 dB): 55 Hz – 20 kHz Cobertura nominal: 110° × 60° (horizontal × vertical) Processamento e recursos DSP interno Equalizador de 3 bandas, delay, ducking automático e presets de uso Conversores: 24-bit / 48 kHz Compatível com atualização de firmware via app Conectividade Entradas: 2 × combo XLR/TRS (mic/line) + 1 × entrada auxiliar estéreo (P2) Saída: XLR mix out Bluetooth 5.0 para streaming de áudio e controle remoto do DSP Operação em modo “pass-through” ou mixagem interna Construção Material: gabinete moldado em polipropileno Pontos de suspensão: 4 × M10 para instalação fixa Inclinação para monitor de palco: sim (formato wedge) Dimensões (A × L × P): 550 × 272 × 260 mm Peso: 11,5 kg Aplicações típicas Som ao vivo (voz e instrumentos) DJs e eventos Palestras e uso corporativo Monitor de palco Conteúdo da Embalagem: Caixa amplificada com carregador e manual do produto.</t>
+    <t>IA NÃO RESPONDEU</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -585,13 +546,13 @@
         <v>15840</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -602,7 +563,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -614,13 +575,13 @@
         <v>18288.01</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -631,7 +592,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -640,13 +601,13 @@
         <v>21198</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -657,7 +618,7 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -669,13 +630,13 @@
         <v>5593.3</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -686,7 +647,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -695,13 +656,13 @@
         <v>7973.9</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -712,7 +673,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -721,13 +682,13 @@
         <v>4640</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -738,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -747,13 +708,13 @@
         <v>797</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,7 +725,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -776,13 +737,13 @@
         <v>2133.02</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -793,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -805,13 +766,13 @@
         <v>11100.2</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -822,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -834,13 +795,13 @@
         <v>22169.4</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -851,7 +812,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -860,13 +821,13 @@
         <v>642</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -877,7 +838,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -886,13 +847,13 @@
         <v>394</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -903,7 +864,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -915,13 +876,13 @@
         <v>170.05</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -932,7 +893,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -944,13 +905,13 @@
         <v>3687</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -961,7 +922,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -973,13 +934,13 @@
         <v>2994</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -999,13 +960,13 @@
         <v>15840</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1016,7 +977,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -1028,13 +989,13 @@
         <v>18288.01</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1045,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1054,13 +1015,13 @@
         <v>21198</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1071,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1083,13 +1044,13 @@
         <v>5593.3</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1100,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1109,13 +1070,13 @@
         <v>7973.9</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1126,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1135,13 +1096,13 @@
         <v>4640</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1152,7 +1113,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1161,13 +1122,13 @@
         <v>797</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1178,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1190,13 +1151,13 @@
         <v>2133.02</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1207,7 +1168,7 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1219,13 +1180,13 @@
         <v>11100.2</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1236,7 +1197,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1248,13 +1209,13 @@
         <v>22169.4</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1265,7 +1226,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1274,13 +1235,13 @@
         <v>642</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1291,7 +1252,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1300,13 +1261,13 @@
         <v>394</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1317,7 +1278,7 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1329,13 +1290,13 @@
         <v>170.05</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1346,7 +1307,7 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1358,13 +1319,13 @@
         <v>3687</v>
       </c>
       <c r="G30" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1375,7 +1336,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1387,13 +1348,13 @@
         <v>2994</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
